--- a/biology/Botanique/Omphalodès_du_printemps/Omphalodès_du_printemps.xlsx
+++ b/biology/Botanique/Omphalodès_du_printemps/Omphalodès_du_printemps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Omphalod%C3%A8s_du_printemps</t>
+          <t>Omphalodès_du_printemps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Omphalodes du printemps ou la Petite Bourrache printanière, Omphalodes verna, est une espèce de plantes de la famille des Boraginacées originaire d'Europe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Omphalod%C3%A8s_du_printemps</t>
+          <t>Omphalodès_du_printemps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres plantes de son genre, Omphalodes verna fait partie de la sous-famille des Boraginoideae.
 La plante est décrite, en 1753, une première fois par Carl von Linné sous le nom de Cynoglossum omphaloides.
-En 1794, Conrad Moench, sur la base d'un autre exemplaire, la décrit à nouveau et la place dans le genre Omphalodes[1].
-En 1819, Johann Jakob Römer et Josef August Schultes la déplacent dans le genre Picotia : Picotia verna (Moench) Roem. &amp; Schult.[2]
-En 1827, Albrecht Wilhelm Roth la place à son tour dans le genre Omphalium : Omphalium vernum (Moench) Roth[3]
+En 1794, Conrad Moench, sur la base d'un autre exemplaire, la décrit à nouveau et la place dans le genre Omphalodes.
+En 1819, Johann Jakob Römer et Josef August Schultes la déplacent dans le genre Picotia : Picotia verna (Moench) Roem. &amp; Schult.
+En 1827, Albrecht Wilhelm Roth la place à son tour dans le genre Omphalium : Omphalium vernum (Moench) Roth
 Enfin, en 1895, Andreas Voss reclasse Cynoglossum omphaloides L. dans le genre Omphalodes : Omphaloides omphaloides (L.) Voss : il crée ainsi un dernier synonyme.
 Elle compte plusieurs synonymes :
 Cynoglossum omphaloides L.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Omphalod%C3%A8s_du_printemps</t>
+          <t>Omphalodès_du_printemps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,14 +569,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée vivace, de 10 à 30 centimètres de haut, formant une touffe stolonifère.
 Les tiges, grêles, érigées, non ramifiées, portent des feuilles alternes, lancéolées vert-clair, minces, à une nervure centrale et pubescentes. Le limbe atteint 7 cm.
 La floraison s'étend de mars à juin.
 Les fleurs sont bleues à œillet blanc, de cinq à vingt en racème de cymes unipares hélicoïdes.
 La corolle de la fleur est large de dix à quinze millimètres, une à deux fois plus longue que le calice.
-Cette espèce compte 48 chromosomes : il s'agit d'une espèce tétraploïde[4]
+Cette espèce compte 48 chromosomes : il s'agit d'une espèce tétraploïde
 </t>
         </is>
       </c>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Omphalod%C3%A8s_du_printemps</t>
+          <t>Omphalodès_du_printemps</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,11 +607,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Omphalodes verna est originaire d'Europe tempérée et méridionale : Europe centrale (Autriche), Balkans (ancienne Yougoslavie), Italie, Roumanie.
 Son habitat est formé préférentiellement de sous-bois clairs.
-Elle est maintenant largement répandue dans l'ensemble des pays à climat tempéré comme plante ornementale. De nombreux horticulteurs la diffusent en France[5]
+Elle est maintenant largement répandue dans l'ensemble des pays à climat tempéré comme plante ornementale. De nombreux horticulteurs la diffusent en France
 			Fleur
 </t>
         </is>
